--- a/Fire AI Dashboard Sea Import Milestone.xlsx
+++ b/Fire AI Dashboard Sea Import Milestone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA07BE8-64BD-46DA-9758-71779E548BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94805AB5-19D3-4E19-B173-6D524FA2A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80991061-036E-481B-8DD9-5D9BB53A37E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="258">
   <si>
     <t>Shipment_No</t>
   </si>
@@ -191,27 +191,15 @@
     <t>(USNYC) New York</t>
   </si>
   <si>
-    <t>SHP/SI/0166/25-26</t>
-  </si>
-  <si>
-    <t>METRO BRANDS LIMITED</t>
-  </si>
-  <si>
     <t>Komal Mhatre</t>
   </si>
   <si>
     <t>(NLRTM) Rotterdam</t>
   </si>
   <si>
-    <t>FINAL PRE-ALERT REC, LCL, ETA 19-SEP</t>
-  </si>
-  <si>
     <t>SHP/SI/0167/25-26</t>
   </si>
   <si>
-    <t>ON-BOARD SENT// DOCS SENT TO ASHA // MANIFEST &amp; FC SENT</t>
-  </si>
-  <si>
     <t>SHP/SI/0170/25-26</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
     <t>(CNTAO) Qingdao</t>
   </si>
   <si>
-    <t>RISHI LASER LIMITED</t>
-  </si>
-  <si>
     <t>Jagdish Shetty</t>
   </si>
   <si>
@@ -266,18 +251,9 @@
     <t>VALTRIS SPECIALTY CHEMICALS INDIA PVT. LTD</t>
   </si>
   <si>
-    <t>SHP/SI/0197/25-26</t>
-  </si>
-  <si>
     <t>(CNTSN) Tianjin</t>
   </si>
   <si>
-    <t>SHP/SI/0199/25-26</t>
-  </si>
-  <si>
-    <t>DRAFT BL RECTIFICATION SENT 21ST AUG/ FC SENT/ TELEX HBL PENDING</t>
-  </si>
-  <si>
     <t>APAR INDUSTRIES LIMITED</t>
   </si>
   <si>
@@ -317,9 +293,6 @@
     <t>(VNHPH) Haiphong</t>
   </si>
   <si>
-    <t>SHP/SI/0213/25-26</t>
-  </si>
-  <si>
     <t>Fotedar India Private Limited</t>
   </si>
   <si>
@@ -365,9 +338,6 @@
     <t>(CNSZP) Shenzhen Pt</t>
   </si>
   <si>
-    <t>SHP/SI/0221/25-26</t>
-  </si>
-  <si>
     <t>SHP/SI/0222/25-26</t>
   </si>
   <si>
@@ -422,9 +392,6 @@
     <t>WINEXT POLYTECH PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>SHP/SI/0231/25-26</t>
-  </si>
-  <si>
     <t>SHP/SI/0232/25-26</t>
   </si>
   <si>
@@ -500,9 +467,6 @@
     <t>SHP/SI/0245/25-26</t>
   </si>
   <si>
-    <t>CLERANCE INVOLVED/ TRANSPORTATION INVOLVED/ CFS INVOLVED/ FC SENT/ TELEX HBL MBL RECEIVED</t>
-  </si>
-  <si>
     <t>OBL RECEIVED/ FC SENT/ AWAITING CAN DETAILS</t>
   </si>
   <si>
@@ -542,9 +506,6 @@
     <t>(MYPKG) Port Klang (Pelabuhan Klang)</t>
   </si>
   <si>
-    <t>ALERT: ROLL OVER AWAITING NOTICE/ AWAITING PICK-UP/ DRAFT BL PENDING-18TH AUG/ TELEX HBL RECEIVED MBL PENDING/ FC SENT</t>
-  </si>
-  <si>
     <t>DRAFT RECEIVED/ DRAFT CONFIRMED/ FC SENT/ TELEX HBL RECEIVED MBL PENDING</t>
   </si>
   <si>
@@ -599,12 +560,6 @@
     <t>AMIN3019285</t>
   </si>
   <si>
-    <t>BSG25080364 / MAEU258684296</t>
-  </si>
-  <si>
-    <t>AMIGL250369351A</t>
-  </si>
-  <si>
     <t>SGCJSHIP11017 / NAM7927401</t>
   </si>
   <si>
@@ -614,9 +569,6 @@
     <t>HNSA2508X0316 / EMIVVNESHN203667</t>
   </si>
   <si>
-    <t>SBKK00211306 / A15FX12242</t>
-  </si>
-  <si>
     <t>FGSH2508000214 / KMTCZHE0031143</t>
   </si>
   <si>
@@ -641,12 +593,6 @@
     <t>WJXG250919518N</t>
   </si>
   <si>
-    <t>AMIGL250369363A</t>
-  </si>
-  <si>
-    <t>JOB NO: SHP/SI/0198/25-26/ FC SENT/ TELEX HBL RECEIVED/ CAN SENT</t>
-  </si>
-  <si>
     <t>SJKT00212534 / SSLPLGTICAD0067</t>
   </si>
   <si>
@@ -704,9 +650,6 @@
     <t>DKK2509503 / 025F748387</t>
   </si>
   <si>
-    <t>BL DRAFT APPROVED, 10TH VESSEL DELAYED TO 15TH SEP DUE to port congestion vessel sailed 12.09.2025 on-board BL sent.</t>
-  </si>
-  <si>
     <t>SJKT00212279</t>
   </si>
   <si>
@@ -725,9 +668,6 @@
     <t>FCL</t>
   </si>
   <si>
-    <t>SZBS2507069 / ONEYNBOFA6729300</t>
-  </si>
-  <si>
     <t>SHP/SI/0223/25-26</t>
   </si>
   <si>
@@ -836,9 +776,6 @@
     <t>STUFFING UNDERWAY</t>
   </si>
   <si>
-    <t>DRAFT CONFIRMED/ OBL PENDING</t>
-  </si>
-  <si>
     <t>DRAFT PENDING</t>
   </si>
   <si>
@@ -849,6 +786,30 @@
   </si>
   <si>
     <t>YSNBF25093642 / SLSNBZ04039</t>
+  </si>
+  <si>
+    <t>ON-BOARD SENT// DOCS SENT TO ASHA // MANIFEST &amp; FC SENT// DO RELEASED</t>
+  </si>
+  <si>
+    <t>BL DRAFT APPROVED, 10TH VESSEL DELAYED TO 15TH SEP DUE to port congestion vessel sailed 12.09.2025 on-board BL sent// MANIFEST &amp; FC SENT</t>
+  </si>
+  <si>
+    <t>KOSZGLO2509258</t>
+  </si>
+  <si>
+    <t>SNSA2509J0614 / EGLV235501481679</t>
+  </si>
+  <si>
+    <t>A92FX25464H</t>
+  </si>
+  <si>
+    <t>DRAFT CONFIRMED/ OBL RECEIVED/ FC SENT/ CAN PENDING</t>
+  </si>
+  <si>
+    <t>SHP/SI/0273/25-26</t>
+  </si>
+  <si>
+    <t>BARCO SHIPPING PRIVATE LIMITED</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C2293F-7C40-4BC4-97A7-AE0D83CB40BC}">
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -1890,378 +1851,372 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>35075601</v>
+      <c r="F2" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="4">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="K2" s="4">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="L2" s="4">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="M2" s="4">
-        <v>45875</v>
+        <v>45867</v>
       </c>
       <c r="N2" s="4">
-        <v>45876</v>
+        <v>45866</v>
       </c>
       <c r="O2" s="4">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="P2" s="4">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="Q2" s="4">
+        <v>45856</v>
+      </c>
+      <c r="R2" s="4">
+        <v>45856</v>
+      </c>
+      <c r="S2" s="4">
         <v>45862</v>
       </c>
-      <c r="R2" s="4">
+      <c r="T2" s="4">
         <v>45862</v>
       </c>
-      <c r="S2" s="4">
-        <v>45863</v>
-      </c>
-      <c r="T2" s="4">
-        <v>45863</v>
-      </c>
       <c r="U2" s="4">
-        <v>45876</v>
+        <v>45867</v>
       </c>
       <c r="V2" s="4">
-        <v>45876</v>
+        <v>45867</v>
       </c>
       <c r="W2" s="4">
-        <v>45889</v>
+        <v>45901</v>
       </c>
       <c r="X2" s="4">
-        <v>45889</v>
+        <v>45901</v>
       </c>
       <c r="Y2" s="4">
         <v>45901</v>
       </c>
       <c r="Z2" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="AA2" s="4">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="AB2" s="4">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="4">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="AF2" s="4">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="AG2" s="4">
-        <v>45918</v>
-      </c>
-      <c r="AH2" s="2"/>
+        <v>45916</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>45917</v>
+      </c>
       <c r="AI2" s="4">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="AJ2" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="54" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="4">
-        <v>45861</v>
-      </c>
-      <c r="K3" s="4">
-        <v>45915</v>
-      </c>
+        <v>45866</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="4">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="M3" s="4">
-        <v>45867</v>
+        <v>45885</v>
       </c>
       <c r="N3" s="4">
-        <v>45866</v>
+        <v>45885</v>
       </c>
       <c r="O3" s="4">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="P3" s="4">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="Q3" s="4">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="R3" s="4">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="S3" s="4">
-        <v>45862</v>
+        <v>45876</v>
       </c>
       <c r="T3" s="4">
-        <v>45862</v>
+        <v>45876</v>
       </c>
       <c r="U3" s="4">
-        <v>45867</v>
+        <v>45888</v>
       </c>
       <c r="V3" s="4">
-        <v>45867</v>
+        <v>45888</v>
       </c>
       <c r="W3" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="X3" s="4">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="Y3" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="Z3" s="4">
-        <v>45903</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>45915</v>
-      </c>
+        <v>45932</v>
+      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="4">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="4">
-        <v>45925</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>45917</v>
-      </c>
+        <v>45926</v>
+      </c>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="4">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="4">
-        <v>45866</v>
+        <v>45873</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="4">
-        <v>45922</v>
+        <v>45935</v>
       </c>
       <c r="M4" s="4">
-        <v>45885</v>
+        <v>45919</v>
       </c>
       <c r="N4" s="4">
-        <v>45885</v>
+        <v>45919</v>
       </c>
       <c r="O4" s="4">
-        <v>45864</v>
+        <v>45873</v>
       </c>
       <c r="P4" s="4">
-        <v>45864</v>
+        <v>45873</v>
       </c>
       <c r="Q4" s="4">
-        <v>45863</v>
+        <v>45882</v>
       </c>
       <c r="R4" s="4">
-        <v>45863</v>
+        <v>45879</v>
       </c>
       <c r="S4" s="4">
-        <v>45876</v>
+        <v>45891</v>
       </c>
       <c r="T4" s="4">
-        <v>45876</v>
+        <v>45891</v>
       </c>
       <c r="U4" s="4">
-        <v>45888</v>
+        <v>45919</v>
       </c>
       <c r="V4" s="4">
-        <v>45888</v>
-      </c>
-      <c r="W4" s="4">
-        <v>45903</v>
-      </c>
+        <v>45920</v>
+      </c>
+      <c r="W4" s="2"/>
       <c r="X4" s="4">
-        <v>45902</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>45903</v>
-      </c>
+        <v>45931</v>
+      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="4">
-        <v>45932</v>
+        <v>45927</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="4">
-        <v>45922</v>
+        <v>45936</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="4">
-        <v>45923</v>
+        <v>45947</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="4">
-        <v>45922</v>
+        <v>45936</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="4">
-        <v>45923</v>
+        <v>45941</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="4">
-        <v>45873</v>
+        <v>45880</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="4">
-        <v>45935</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>45941</v>
+      </c>
+      <c r="M5" s="4">
+        <v>45897</v>
+      </c>
       <c r="N5" s="4">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="O5" s="4">
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="P5" s="4">
-        <v>45873</v>
+        <v>45878</v>
       </c>
       <c r="Q5" s="4">
-        <v>45882</v>
+        <v>45880</v>
       </c>
       <c r="R5" s="4">
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="S5" s="4">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="T5" s="4">
         <v>45891</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="4">
+        <v>45903</v>
+      </c>
       <c r="V5" s="4">
-        <v>45920</v>
+        <v>45899</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="4">
-        <v>45931</v>
+        <v>45922</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="4">
-        <v>45927</v>
+        <v>45923</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="4">
@@ -2270,7 +2225,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="4">
-        <v>45947</v>
+        <v>45943</v>
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="4">
@@ -2278,82 +2233,84 @@
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="4">
-        <v>45941</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>45940</v>
+      </c>
+      <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4">
-        <v>45880</v>
+        <v>45883</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="4">
-        <v>45941</v>
+        <v>45935</v>
       </c>
       <c r="M6" s="4">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="N6" s="4">
-        <v>45897</v>
+        <v>45893</v>
       </c>
       <c r="O6" s="4">
-        <v>45877</v>
+        <v>45883</v>
       </c>
       <c r="P6" s="4">
-        <v>45878</v>
+        <v>45883</v>
       </c>
       <c r="Q6" s="4">
-        <v>45880</v>
+        <v>45886</v>
       </c>
       <c r="R6" s="4">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="S6" s="4">
-        <v>45894</v>
+        <v>45890</v>
       </c>
       <c r="T6" s="4">
-        <v>45891</v>
+        <v>45889</v>
       </c>
       <c r="U6" s="4">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="V6" s="4">
-        <v>45899</v>
-      </c>
-      <c r="W6" s="2"/>
+        <v>45896</v>
+      </c>
+      <c r="W6" s="4">
+        <v>45905</v>
+      </c>
       <c r="X6" s="4">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="4">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="4">
@@ -2362,7 +2319,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="4">
-        <v>45943</v>
+        <v>45937</v>
       </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="4">
@@ -2370,1289 +2327,1265 @@
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="4">
-        <v>45940</v>
-      </c>
-      <c r="AJ6" s="2"/>
+        <v>45937</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="4">
-        <v>45880</v>
-      </c>
-      <c r="K7" s="4">
+        <v>45883</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4">
+        <v>45940</v>
+      </c>
+      <c r="M7" s="4">
+        <v>45895</v>
+      </c>
+      <c r="N7" s="4">
+        <v>45895</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45883</v>
+      </c>
+      <c r="P7" s="4">
+        <v>45881</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>45881</v>
+      </c>
+      <c r="R7" s="4">
+        <v>45881</v>
+      </c>
+      <c r="S7" s="4">
+        <v>45894</v>
+      </c>
+      <c r="T7" s="4">
+        <v>45890</v>
+      </c>
+      <c r="U7" s="4">
+        <v>45902</v>
+      </c>
+      <c r="V7" s="4">
+        <v>45895</v>
+      </c>
+      <c r="W7" s="4">
+        <v>45905</v>
+      </c>
+      <c r="X7" s="4">
         <v>45918</v>
       </c>
-      <c r="L7" s="4">
-        <v>45924</v>
-      </c>
-      <c r="M7" s="4">
-        <v>45904</v>
-      </c>
-      <c r="N7" s="4">
-        <v>45903</v>
-      </c>
-      <c r="O7" s="4">
-        <v>45880</v>
-      </c>
-      <c r="P7" s="4">
-        <v>45877</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>45886</v>
-      </c>
-      <c r="R7" s="4">
-        <v>45884</v>
-      </c>
-      <c r="S7" s="4">
-        <v>45891</v>
-      </c>
-      <c r="T7" s="4">
-        <v>45889</v>
-      </c>
-      <c r="U7" s="4">
-        <v>45910</v>
-      </c>
-      <c r="V7" s="4">
-        <v>45905</v>
-      </c>
-      <c r="W7" s="4">
-        <v>45910</v>
-      </c>
-      <c r="X7" s="4">
-        <v>45915</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>45912</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="4">
-        <v>45915</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>45918</v>
-      </c>
+        <v>45930</v>
+      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="4">
-        <v>45925</v>
+        <v>45943</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="4">
-        <v>45931</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>45918</v>
-      </c>
+        <v>45947</v>
+      </c>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="4">
-        <v>45926</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>45918</v>
-      </c>
+        <v>45943</v>
+      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="4">
-        <v>45930</v>
+        <v>45945</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="4">
-        <v>45880</v>
-      </c>
-      <c r="K8" s="4">
-        <v>45915</v>
-      </c>
+        <v>45883</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="4">
-        <v>45915</v>
+        <v>45924</v>
       </c>
       <c r="M8" s="4">
-        <v>45898</v>
+        <v>45894</v>
       </c>
       <c r="N8" s="4">
+        <v>45894</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45883</v>
+      </c>
+      <c r="P8" s="4">
+        <v>45883</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>45883</v>
+      </c>
+      <c r="R8" s="4">
+        <v>45883</v>
+      </c>
+      <c r="S8" s="4">
+        <v>45890</v>
+      </c>
+      <c r="T8" s="4">
+        <v>45890</v>
+      </c>
+      <c r="U8" s="4">
         <v>45896</v>
       </c>
-      <c r="O8" s="4">
-        <v>45880</v>
-      </c>
-      <c r="P8" s="4">
-        <v>45877</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>45882</v>
-      </c>
-      <c r="R8" s="4">
-        <v>45881</v>
-      </c>
-      <c r="S8" s="4">
-        <v>45894</v>
-      </c>
-      <c r="T8" s="4">
-        <v>45889</v>
-      </c>
-      <c r="U8" s="4">
-        <v>45901</v>
-      </c>
       <c r="V8" s="4">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="W8" s="4">
         <v>45909</v>
       </c>
       <c r="X8" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="Y8" s="4">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="Z8" s="4">
-        <v>45909</v>
-      </c>
-      <c r="AA8" s="4">
         <v>45915</v>
       </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="4">
-        <v>45915</v>
+        <v>45925</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="4">
-        <v>45922</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>45915</v>
-      </c>
+        <v>45931</v>
+      </c>
+      <c r="AF8" s="2"/>
       <c r="AG8" s="4">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="4">
-        <v>45920</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>45930</v>
+      </c>
+      <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="J9" s="4">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4">
-        <v>45935</v>
+        <v>45923</v>
       </c>
       <c r="M9" s="4">
+        <v>45901</v>
+      </c>
+      <c r="N9" s="4">
+        <v>45900</v>
+      </c>
+      <c r="O9" s="4">
+        <v>45890</v>
+      </c>
+      <c r="P9" s="4">
+        <v>45888</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>45890</v>
+      </c>
+      <c r="R9" s="4">
+        <v>45889</v>
+      </c>
+      <c r="S9" s="4">
         <v>45895</v>
       </c>
-      <c r="N9" s="4">
-        <v>45893</v>
-      </c>
-      <c r="O9" s="4">
-        <v>45883</v>
-      </c>
-      <c r="P9" s="4">
-        <v>45883</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>45886</v>
-      </c>
-      <c r="R9" s="4">
-        <v>45882</v>
-      </c>
-      <c r="S9" s="4">
-        <v>45890</v>
-      </c>
       <c r="T9" s="4">
-        <v>45889</v>
+        <v>45895</v>
       </c>
       <c r="U9" s="4">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="V9" s="4">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="W9" s="4">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="X9" s="4">
-        <v>45919</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <v>45904</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>45909</v>
+      </c>
       <c r="Z9" s="4">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="4">
-        <v>45936</v>
+        <v>45923</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="4">
-        <v>45937</v>
+        <v>45927</v>
       </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="4">
-        <v>45936</v>
+        <v>45924</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="4">
-        <v>45937</v>
+        <v>45926</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="4">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="4">
-        <v>45940</v>
+        <v>45921</v>
       </c>
       <c r="M10" s="4">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="N10" s="4">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="O10" s="4">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="P10" s="4">
-        <v>45881</v>
+        <v>45890</v>
       </c>
       <c r="Q10" s="4">
-        <v>45881</v>
+        <v>45892</v>
       </c>
       <c r="R10" s="4">
-        <v>45881</v>
+        <v>45892</v>
       </c>
       <c r="S10" s="4">
         <v>45894</v>
       </c>
       <c r="T10" s="4">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="U10" s="4">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="V10" s="4">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="W10" s="4">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="X10" s="4">
-        <v>45918</v>
-      </c>
-      <c r="Y10" s="2"/>
+        <v>45908</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>45899</v>
+      </c>
       <c r="Z10" s="4">
-        <v>45930</v>
+        <v>45908</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="4">
-        <v>45943</v>
+        <v>45921</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="4">
-        <v>45947</v>
+        <v>45927</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="4">
-        <v>45943</v>
+        <v>45922</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="4">
-        <v>45945</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>45927</v>
+      </c>
+      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="4">
-        <v>45883</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>45890</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45918</v>
+      </c>
       <c r="L11" s="4">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="M11" s="4">
+        <v>45906</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45906</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45890</v>
+      </c>
+      <c r="P11" s="4">
+        <v>45890</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>45890</v>
+      </c>
+      <c r="R11" s="4">
+        <v>45890</v>
+      </c>
+      <c r="S11" s="4">
         <v>45894</v>
-      </c>
-      <c r="N11" s="4">
-        <v>45894</v>
-      </c>
-      <c r="O11" s="4">
-        <v>45883</v>
-      </c>
-      <c r="P11" s="4">
-        <v>45883</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>45883</v>
-      </c>
-      <c r="R11" s="4">
-        <v>45883</v>
-      </c>
-      <c r="S11" s="4">
-        <v>45890</v>
       </c>
       <c r="T11" s="4">
         <v>45890</v>
       </c>
       <c r="U11" s="4">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="V11" s="4">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="W11" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="X11" s="4">
-        <v>45908</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>45912</v>
+      </c>
       <c r="Z11" s="4">
-        <v>45915</v>
-      </c>
-      <c r="AA11" s="2"/>
+        <v>45910</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>45918</v>
+      </c>
       <c r="AB11" s="4">
-        <v>45925</v>
+        <v>45916</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="4">
-        <v>45931</v>
-      </c>
-      <c r="AF11" s="2"/>
+        <v>45926</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>45918</v>
+      </c>
       <c r="AG11" s="4">
-        <v>45926</v>
+        <v>45916</v>
       </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AJ11" s="2"/>
+        <v>45925</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:36" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="4">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="K12" s="4">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="L12" s="4">
-        <v>45907</v>
+        <v>45915</v>
       </c>
       <c r="M12" s="4">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="N12" s="4">
         <v>45895</v>
       </c>
       <c r="O12" s="4">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="P12" s="4">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="Q12" s="4">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="R12" s="4">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="S12" s="4">
-        <v>45894</v>
+        <v>45892</v>
       </c>
       <c r="T12" s="4">
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="U12" s="4">
         <v>45897</v>
       </c>
       <c r="V12" s="4">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="W12" s="4">
         <v>45902</v>
       </c>
       <c r="X12" s="4">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="Y12" s="4">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="Z12" s="4">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="AA12" s="4">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="AB12" s="4">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="4">
-        <v>45920</v>
+        <v>45926</v>
       </c>
       <c r="AF12" s="4">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="AG12" s="4">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="4">
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="M13" s="4">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="N13" s="4">
-        <v>45900</v>
+        <v>45913</v>
       </c>
       <c r="O13" s="4">
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="P13" s="4">
-        <v>45888</v>
+        <v>45891</v>
       </c>
       <c r="Q13" s="4">
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="R13" s="4">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="S13" s="4">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="T13" s="4">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="U13" s="4">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="V13" s="4">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="W13" s="4">
-        <v>45902</v>
+        <v>45920</v>
       </c>
       <c r="X13" s="4">
-        <v>45904</v>
+        <v>45920</v>
       </c>
       <c r="Y13" s="4">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="Z13" s="4">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="4">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="4">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="4">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="4">
-        <v>45926</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>45930</v>
+      </c>
+      <c r="AJ13" s="2"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="4">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4">
-        <v>45921</v>
+        <v>45940</v>
       </c>
       <c r="M14" s="4">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="N14" s="4">
+        <v>45899</v>
+      </c>
+      <c r="O14" s="4">
+        <v>45891</v>
+      </c>
+      <c r="P14" s="4">
+        <v>45891</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>45888</v>
+      </c>
+      <c r="R14" s="4">
+        <v>45888</v>
+      </c>
+      <c r="S14" s="4">
+        <v>45891</v>
+      </c>
+      <c r="T14" s="4">
+        <v>45891</v>
+      </c>
+      <c r="U14" s="4">
         <v>45902</v>
       </c>
-      <c r="O14" s="4">
-        <v>45890</v>
-      </c>
-      <c r="P14" s="4">
-        <v>45890</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>45892</v>
-      </c>
-      <c r="R14" s="4">
-        <v>45892</v>
-      </c>
-      <c r="S14" s="4">
-        <v>45894</v>
-      </c>
-      <c r="T14" s="4">
-        <v>45894</v>
-      </c>
-      <c r="U14" s="4">
-        <v>45898</v>
-      </c>
       <c r="V14" s="4">
-        <v>45904</v>
-      </c>
-      <c r="W14" s="4">
-        <v>45908</v>
-      </c>
+        <v>45897</v>
+      </c>
+      <c r="W14" s="2"/>
       <c r="X14" s="4">
-        <v>45908</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>45899</v>
-      </c>
+        <v>45922</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="4">
-        <v>45908</v>
+        <v>45923</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="4">
-        <v>45921</v>
+        <v>45940</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="4">
-        <v>45927</v>
+        <v>45950</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="4">
-        <v>45922</v>
+        <v>45943</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="4">
-        <v>45927</v>
-      </c>
-      <c r="AJ14" s="2"/>
+        <v>45977</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>220</v>
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>93971627</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="4">
-        <v>45890</v>
-      </c>
-      <c r="K15" s="4">
+        <v>45895</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4">
+        <v>45950</v>
+      </c>
+      <c r="M15" s="4">
+        <v>45919</v>
+      </c>
+      <c r="N15" s="4">
         <v>45918</v>
       </c>
-      <c r="L15" s="4">
-        <v>45916</v>
-      </c>
-      <c r="M15" s="4">
-        <v>45906</v>
-      </c>
-      <c r="N15" s="4">
-        <v>45906</v>
-      </c>
       <c r="O15" s="4">
-        <v>45890</v>
+        <v>45895</v>
       </c>
       <c r="P15" s="4">
-        <v>45890</v>
+        <v>45895</v>
       </c>
       <c r="Q15" s="4">
-        <v>45890</v>
+        <v>45903</v>
       </c>
       <c r="R15" s="4">
-        <v>45890</v>
+        <v>45903</v>
       </c>
       <c r="S15" s="4">
-        <v>45894</v>
+        <v>45911</v>
       </c>
       <c r="T15" s="4">
-        <v>45890</v>
-      </c>
-      <c r="U15" s="4">
-        <v>45908</v>
-      </c>
+        <v>45911</v>
+      </c>
+      <c r="U15" s="2"/>
       <c r="V15" s="4">
-        <v>45908</v>
-      </c>
-      <c r="W15" s="4">
-        <v>45908</v>
-      </c>
+        <v>45923</v>
+      </c>
+      <c r="W15" s="2"/>
       <c r="X15" s="4">
-        <v>45915</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>45912</v>
-      </c>
+        <v>45940</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="4">
-        <v>45910</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45918</v>
-      </c>
+        <v>45940</v>
+      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="4">
-        <v>45916</v>
+        <v>45952</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="4">
-        <v>45922</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>45918</v>
-      </c>
+        <v>45958</v>
+      </c>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="4">
-        <v>45916</v>
+        <v>45954</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="4">
-        <v>45922</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>155</v>
-      </c>
+        <v>45958</v>
+      </c>
+      <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="4">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="K16" s="4">
+        <v>45918</v>
+      </c>
+      <c r="L16" s="4">
+        <v>45920</v>
+      </c>
+      <c r="M16" s="4">
+        <v>45906</v>
+      </c>
+      <c r="N16" s="4">
+        <v>45906</v>
+      </c>
+      <c r="O16" s="4">
+        <v>45895</v>
+      </c>
+      <c r="P16" s="4">
+        <v>45895</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>45895</v>
+      </c>
+      <c r="R16" s="4">
+        <v>45895</v>
+      </c>
+      <c r="S16" s="4">
+        <v>45903</v>
+      </c>
+      <c r="T16" s="4">
+        <v>45897</v>
+      </c>
+      <c r="U16" s="4">
+        <v>45909</v>
+      </c>
+      <c r="V16" s="4">
+        <v>45908</v>
+      </c>
+      <c r="W16" s="4">
+        <v>45917</v>
+      </c>
+      <c r="X16" s="4">
         <v>45915</v>
       </c>
-      <c r="L16" s="4">
+      <c r="Y16" s="4">
+        <v>45917</v>
+      </c>
+      <c r="Z16" s="4">
         <v>45915</v>
       </c>
-      <c r="M16" s="4">
-        <v>45896</v>
-      </c>
-      <c r="N16" s="4">
-        <v>45895</v>
-      </c>
-      <c r="O16" s="4">
-        <v>45890</v>
-      </c>
-      <c r="P16" s="4">
-        <v>45890</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>45891</v>
-      </c>
-      <c r="R16" s="4">
-        <v>45891</v>
-      </c>
-      <c r="S16" s="4">
-        <v>45892</v>
-      </c>
-      <c r="T16" s="4">
-        <v>45892</v>
-      </c>
-      <c r="U16" s="4">
-        <v>45897</v>
-      </c>
-      <c r="V16" s="4">
-        <v>45896</v>
-      </c>
-      <c r="W16" s="4">
-        <v>45902</v>
-      </c>
-      <c r="X16" s="4">
-        <v>45905</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>45902</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>45905</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45915</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="4">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="4">
-        <v>45924</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>45915</v>
-      </c>
+        <v>45926</v>
+      </c>
+      <c r="AF16" s="2"/>
       <c r="AG16" s="4">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="4">
-        <v>45920</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>45925</v>
+      </c>
+      <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="4">
-        <v>45892</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>45897</v>
+      </c>
+      <c r="K17" s="4">
+        <v>45919</v>
+      </c>
       <c r="L17" s="4">
-        <v>45926</v>
+        <v>45918</v>
       </c>
       <c r="M17" s="4">
-        <v>45915</v>
+        <v>45906</v>
       </c>
       <c r="N17" s="4">
-        <v>45913</v>
+        <v>45906</v>
       </c>
       <c r="O17" s="4">
-        <v>45892</v>
+        <v>45898</v>
       </c>
       <c r="P17" s="4">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="Q17" s="4">
-        <v>45892</v>
+        <v>45898</v>
       </c>
       <c r="R17" s="4">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="S17" s="4">
         <v>45904</v>
       </c>
       <c r="T17" s="4">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="U17" s="4">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="V17" s="4">
-        <v>45915</v>
-      </c>
-      <c r="W17" s="2"/>
+        <v>45908</v>
+      </c>
+      <c r="W17" s="4">
+        <v>45912</v>
+      </c>
       <c r="X17" s="4">
-        <v>45920</v>
+        <v>45912</v>
       </c>
       <c r="Y17" s="4">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="Z17" s="4">
         <v>45912</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="4">
-        <v>45926</v>
+        <v>45923</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="4">
-        <v>45930</v>
+        <v>45955</v>
       </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="4">
-        <v>45927</v>
+        <v>45923</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AJ17" s="2"/>
+        <v>45924</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J18" s="4">
-        <v>45892</v>
+        <v>45897</v>
       </c>
       <c r="K18" s="4">
-        <v>45914</v>
+        <v>45919</v>
       </c>
       <c r="L18" s="4">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="M18" s="4">
+        <v>45906</v>
+      </c>
+      <c r="N18" s="4">
+        <v>45906</v>
+      </c>
+      <c r="O18" s="4">
         <v>45898</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
+        <v>45897</v>
+      </c>
+      <c r="Q18" s="4">
         <v>45898</v>
       </c>
-      <c r="O18" s="4">
-        <v>45892</v>
-      </c>
-      <c r="P18" s="4">
-        <v>45892</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>45892</v>
-      </c>
       <c r="R18" s="4">
-        <v>45892</v>
+        <v>45897</v>
       </c>
       <c r="S18" s="4">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="T18" s="4">
-        <v>45894</v>
+        <v>45904</v>
       </c>
       <c r="U18" s="4">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="V18" s="4">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="W18" s="4">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="X18" s="4">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="Y18" s="4">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="Z18" s="4">
-        <v>45908</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>45915</v>
-      </c>
+        <v>45912</v>
+      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="4">
-        <v>45922</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>45915</v>
-      </c>
+        <v>45926</v>
+      </c>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="4">
-        <v>45922</v>
-      </c>
-      <c r="AJ18" s="2"/>
+        <v>45925</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J19" s="4">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4">
-        <v>45940</v>
+        <v>45933</v>
       </c>
       <c r="M19" s="4">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="N19" s="4">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="O19" s="4">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="P19" s="4">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="Q19" s="4">
-        <v>45888</v>
+        <v>45904</v>
       </c>
       <c r="R19" s="4">
-        <v>45888</v>
+        <v>45905</v>
       </c>
       <c r="S19" s="4">
-        <v>45891</v>
+        <v>45909</v>
       </c>
       <c r="T19" s="4">
-        <v>45891</v>
+        <v>45909</v>
       </c>
       <c r="U19" s="4">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="V19" s="4">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="4">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="4">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="4">
-        <v>45940</v>
+        <v>45933</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="4">
-        <v>45950</v>
+        <v>45943</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="4">
-        <v>45943</v>
+        <v>45936</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="4">
-        <v>45977</v>
+        <v>45940</v>
       </c>
       <c r="AJ19" s="3" t="s">
         <v>111</v>
@@ -3660,113 +3593,117 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>93971627</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="4">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4">
-        <v>45950</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>45930</v>
+      </c>
+      <c r="M20" s="4">
+        <v>45908</v>
+      </c>
       <c r="N20" s="4">
-        <v>45918</v>
+        <v>45907</v>
       </c>
       <c r="O20" s="4">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="P20" s="4">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="Q20" s="4">
+        <v>45898</v>
+      </c>
+      <c r="R20" s="4">
+        <v>45898</v>
+      </c>
+      <c r="S20" s="4">
+        <v>45904</v>
+      </c>
+      <c r="T20" s="4">
         <v>45903</v>
       </c>
-      <c r="R20" s="4">
-        <v>45903</v>
-      </c>
-      <c r="S20" s="4">
-        <v>45911</v>
-      </c>
-      <c r="T20" s="4">
-        <v>45911</v>
-      </c>
-      <c r="U20" s="2"/>
+      <c r="U20" s="4">
+        <v>45908</v>
+      </c>
       <c r="V20" s="4">
-        <v>45919</v>
-      </c>
-      <c r="W20" s="2"/>
+        <v>45908</v>
+      </c>
+      <c r="W20" s="4">
+        <v>45915</v>
+      </c>
       <c r="X20" s="4">
-        <v>45940</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>45915</v>
+      </c>
       <c r="Z20" s="4">
-        <v>45940</v>
+        <v>45915</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="4">
-        <v>45952</v>
+        <v>45930</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="4">
-        <v>45958</v>
+        <v>45935</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="4">
-        <v>45954</v>
+        <v>45930</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="4">
-        <v>45958</v>
+        <v>45935</v>
       </c>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>71</v>
@@ -3775,525 +3712,527 @@
         <v>6</v>
       </c>
       <c r="J21" s="4">
-        <v>45895</v>
-      </c>
-      <c r="K21" s="4">
-        <v>45918</v>
-      </c>
+        <v>45898</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="4">
-        <v>45920</v>
+        <v>45929</v>
       </c>
       <c r="M21" s="4">
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="N21" s="4">
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="O21" s="4">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="P21" s="4">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="Q21" s="4">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="R21" s="4">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="S21" s="4">
         <v>45903</v>
       </c>
       <c r="T21" s="4">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="U21" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="V21" s="4">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="W21" s="4">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="X21" s="4">
         <v>45915</v>
       </c>
       <c r="Y21" s="4">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="Z21" s="4">
         <v>45915</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="4">
-        <v>45922</v>
+        <v>45929</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="4">
-        <v>45926</v>
+        <v>45936</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="4">
-        <v>45923</v>
+        <v>45929</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="4">
-        <v>45925</v>
+        <v>45934</v>
       </c>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="4">
-        <v>45897</v>
-      </c>
-      <c r="K22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="4">
+        <v>45922</v>
+      </c>
+      <c r="M22" s="4">
+        <v>45902</v>
+      </c>
+      <c r="N22" s="4">
+        <v>45902</v>
+      </c>
+      <c r="O22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="P22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="R22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="S22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="T22" s="4">
+        <v>45901</v>
+      </c>
+      <c r="U22" s="4">
+        <v>45902</v>
+      </c>
+      <c r="V22" s="4">
+        <v>45903</v>
+      </c>
+      <c r="W22" s="4">
         <v>45918</v>
       </c>
-      <c r="L22" s="4">
+      <c r="X22" s="4">
         <v>45918</v>
       </c>
-      <c r="M22" s="4">
-        <v>45906</v>
-      </c>
-      <c r="N22" s="4">
-        <v>45906</v>
-      </c>
-      <c r="O22" s="4">
-        <v>45898</v>
-      </c>
-      <c r="P22" s="4">
-        <v>45897</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>45898</v>
-      </c>
-      <c r="R22" s="4">
-        <v>45898</v>
-      </c>
-      <c r="S22" s="4">
-        <v>45904</v>
-      </c>
-      <c r="T22" s="4">
-        <v>45904</v>
-      </c>
-      <c r="U22" s="4">
-        <v>45908</v>
-      </c>
-      <c r="V22" s="4">
-        <v>45908</v>
-      </c>
-      <c r="W22" s="4">
-        <v>45912</v>
-      </c>
-      <c r="X22" s="4">
-        <v>45912</v>
-      </c>
       <c r="Y22" s="4">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="Z22" s="4">
         <v>45912</v>
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="4">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="4">
-        <v>45955</v>
+        <v>45925</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="4">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="4">
         <v>45924</v>
       </c>
-      <c r="AJ22" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="4">
-        <v>45897</v>
-      </c>
-      <c r="K23" s="4">
-        <v>45918</v>
-      </c>
+        <v>45902</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="4">
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="M23" s="4">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="N23" s="4">
-        <v>45906</v>
+        <v>45916</v>
       </c>
       <c r="O23" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="P23" s="4">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="Q23" s="4">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="R23" s="4">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="S23" s="4">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="T23" s="4">
         <v>45904</v>
       </c>
       <c r="U23" s="4">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="V23" s="4">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="W23" s="4">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="X23" s="4">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="Y23" s="4">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="Z23" s="4">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="4">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="4">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="4">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="4">
-        <v>45922</v>
+        <v>45959</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="J24" s="4">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4">
-        <v>45933</v>
+        <v>45923</v>
       </c>
       <c r="M24" s="4">
+        <v>45903</v>
+      </c>
+      <c r="N24" s="4">
+        <v>45905</v>
+      </c>
+      <c r="O24" s="4">
+        <v>45901</v>
+      </c>
+      <c r="P24" s="4">
+        <v>45901</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>45902</v>
+      </c>
+      <c r="R24" s="4">
+        <v>45902</v>
+      </c>
+      <c r="S24" s="4">
+        <v>45902</v>
+      </c>
+      <c r="T24" s="4">
+        <v>45902</v>
+      </c>
+      <c r="U24" s="4">
+        <v>45908</v>
+      </c>
+      <c r="V24" s="4">
+        <v>45908</v>
+      </c>
+      <c r="W24" s="4">
         <v>45915</v>
       </c>
-      <c r="N24" s="4">
+      <c r="X24" s="4">
         <v>45915</v>
       </c>
-      <c r="O24" s="4">
-        <v>45897</v>
-      </c>
-      <c r="P24" s="4">
-        <v>45897</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>45904</v>
-      </c>
-      <c r="R24" s="4">
-        <v>45905</v>
-      </c>
-      <c r="S24" s="4">
-        <v>45909</v>
-      </c>
-      <c r="T24" s="4">
-        <v>45909</v>
-      </c>
-      <c r="U24" s="4">
-        <v>45916</v>
-      </c>
-      <c r="V24" s="4">
-        <v>45916</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="4">
-        <v>45922</v>
-      </c>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="4">
+        <v>45915</v>
+      </c>
       <c r="Z24" s="4">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="4">
-        <v>45933</v>
+        <v>45924</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="4">
-        <v>45943</v>
+        <v>45930</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="4">
-        <v>45936</v>
+        <v>45924</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="4">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J25" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="M25" s="4">
         <v>45908</v>
       </c>
       <c r="N25" s="4">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="O25" s="4">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="P25" s="4">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="Q25" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="R25" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="S25" s="4">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="T25" s="4">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="U25" s="4">
         <v>45908</v>
       </c>
       <c r="V25" s="4">
-        <v>45908</v>
+        <v>45906</v>
       </c>
       <c r="W25" s="4">
         <v>45915</v>
       </c>
       <c r="X25" s="4">
-        <v>45915</v>
+        <v>45920</v>
       </c>
       <c r="Y25" s="4">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="Z25" s="4">
         <v>45915</v>
       </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="4">
-        <v>45930</v>
+        <v>45924</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="4">
-        <v>45935</v>
+        <v>45930</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="4">
-        <v>45930</v>
+        <v>45925</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="4">
-        <v>45935</v>
-      </c>
-      <c r="AJ25" s="2"/>
+        <v>45927</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J26" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="M26" s="4">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="N26" s="4">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="O26" s="4">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="P26" s="4">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="Q26" s="4">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="R26" s="4">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="S26" s="4">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="T26" s="4">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="U26" s="4">
         <v>45908</v>
       </c>
       <c r="V26" s="4">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="W26" s="4">
         <v>45915</v>
@@ -4302,276 +4241,268 @@
         <v>45915</v>
       </c>
       <c r="Y26" s="4">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="Z26" s="4">
         <v>45915</v>
       </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="4">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="4">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="4">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="AH26" s="2"/>
       <c r="AI26" s="4">
-        <v>45934</v>
-      </c>
-      <c r="AJ26" s="2"/>
+        <v>45930</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J27" s="4">
-        <v>45901</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>45903</v>
+      </c>
+      <c r="K27" s="4">
+        <v>45919</v>
+      </c>
       <c r="L27" s="4">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="M27" s="4">
+        <v>45908</v>
+      </c>
+      <c r="N27" s="4">
+        <v>45907</v>
+      </c>
+      <c r="O27" s="4">
         <v>45902</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>45902</v>
       </c>
-      <c r="O27" s="4">
-        <v>45901</v>
-      </c>
-      <c r="P27" s="4">
-        <v>45901</v>
-      </c>
       <c r="Q27" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="R27" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="S27" s="4">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="T27" s="4">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="U27" s="4">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="V27" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="W27" s="4">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="X27" s="4">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="Y27" s="4">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="Z27" s="4">
         <v>45912</v>
       </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="4">
+        <v>45919</v>
+      </c>
       <c r="AB27" s="4">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="4">
-        <v>45925</v>
-      </c>
-      <c r="AF27" s="2"/>
+        <v>45933</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>45919</v>
+      </c>
       <c r="AG27" s="4">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AI27" s="4">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="4">
-        <v>45902</v>
-      </c>
-      <c r="K28" s="4">
+        <v>45903</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="4">
+        <v>45957</v>
+      </c>
+      <c r="M28" s="4">
+        <v>45919</v>
+      </c>
+      <c r="N28" s="4">
+        <v>45919</v>
+      </c>
+      <c r="O28" s="4">
+        <v>45904</v>
+      </c>
+      <c r="P28" s="4">
+        <v>45903</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>45904</v>
+      </c>
+      <c r="R28" s="4">
+        <v>45903</v>
+      </c>
+      <c r="S28" s="4">
         <v>45915</v>
       </c>
-      <c r="L28" s="4">
-        <v>45915</v>
-      </c>
-      <c r="M28" s="4">
-        <v>45896</v>
-      </c>
-      <c r="N28" s="4">
-        <v>45896</v>
-      </c>
-      <c r="O28" s="4">
-        <v>45906</v>
-      </c>
-      <c r="P28" s="4">
-        <v>45902</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>45882</v>
-      </c>
-      <c r="R28" s="4">
-        <v>45882</v>
-      </c>
-      <c r="S28" s="4">
-        <v>45894</v>
-      </c>
       <c r="T28" s="4">
-        <v>45888</v>
-      </c>
-      <c r="U28" s="4">
-        <v>45904</v>
-      </c>
+        <v>45916</v>
+      </c>
+      <c r="U28" s="2"/>
       <c r="V28" s="4">
-        <v>45904</v>
-      </c>
-      <c r="W28" s="4">
-        <v>45909</v>
-      </c>
+        <v>45923</v>
+      </c>
+      <c r="W28" s="2"/>
       <c r="X28" s="4">
-        <v>45906</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>45909</v>
-      </c>
+        <v>45945</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="4">
-        <v>45908</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>45915</v>
-      </c>
+        <v>45955</v>
+      </c>
+      <c r="AA28" s="2"/>
       <c r="AB28" s="4">
-        <v>45915</v>
+        <v>45959</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="4">
-        <v>45923</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>45915</v>
-      </c>
+        <v>45961</v>
+      </c>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="4">
-        <v>45915</v>
+        <v>45960</v>
       </c>
       <c r="AH28" s="2"/>
       <c r="AI28" s="4">
-        <v>45920</v>
-      </c>
-      <c r="AJ28" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>45961</v>
+      </c>
+      <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J29" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="M29" s="4">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="N29" s="4">
-        <v>45916</v>
+        <v>45914</v>
       </c>
       <c r="O29" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="P29" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="Q29" s="4">
         <v>45903</v>
@@ -4580,224 +4511,226 @@
         <v>45903</v>
       </c>
       <c r="S29" s="4">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="T29" s="4">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="U29" s="4">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="V29" s="4">
-        <v>45918</v>
-      </c>
-      <c r="W29" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="W29" s="4">
+        <v>45919</v>
+      </c>
       <c r="X29" s="4">
         <v>45919</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="4">
+        <v>45919</v>
+      </c>
       <c r="Z29" s="4">
         <v>45919</v>
       </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="4">
-        <v>45929</v>
+        <v>45923</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="4">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="4">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="AH29" s="2"/>
       <c r="AI29" s="4">
-        <v>45933</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>45929</v>
+      </c>
+      <c r="AJ29" s="2"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="M30" s="4">
+        <v>45914</v>
+      </c>
+      <c r="N30" s="4">
+        <v>45914</v>
+      </c>
+      <c r="O30" s="4">
         <v>45903</v>
       </c>
-      <c r="N30" s="4">
-        <v>45905</v>
-      </c>
-      <c r="O30" s="4">
-        <v>45901</v>
-      </c>
       <c r="P30" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="Q30" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="R30" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="S30" s="4">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="T30" s="4">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="U30" s="4">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="V30" s="4">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="W30" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="X30" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="Y30" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="Z30" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="AA30" s="2"/>
       <c r="AB30" s="4">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="4">
-        <v>45930</v>
+        <v>45933</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="4">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="AH30" s="2"/>
       <c r="AI30" s="4">
-        <v>45926</v>
+        <v>45932</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="M31" s="4">
-        <v>45908</v>
+        <v>45914</v>
       </c>
       <c r="N31" s="4">
-        <v>45905</v>
+        <v>45914</v>
       </c>
       <c r="O31" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="P31" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="Q31" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="R31" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="S31" s="4">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="T31" s="4">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="U31" s="4">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="V31" s="4">
-        <v>45906</v>
+        <v>45917</v>
       </c>
       <c r="W31" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="X31" s="4">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="Y31" s="4">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="Z31" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="4">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4810,156 +4743,154 @@
       </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="4">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="AJ31" s="3" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4">
         <v>45925</v>
       </c>
       <c r="M32" s="4">
+        <v>45914</v>
+      </c>
+      <c r="N32" s="4">
+        <v>45914</v>
+      </c>
+      <c r="O32" s="4">
         <v>45903</v>
       </c>
-      <c r="N32" s="4">
-        <v>45904</v>
-      </c>
-      <c r="O32" s="4">
-        <v>45902</v>
-      </c>
       <c r="P32" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="Q32" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="R32" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="S32" s="4">
-        <v>45902</v>
+        <v>45912</v>
       </c>
       <c r="T32" s="4">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="U32" s="4">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="V32" s="4">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="W32" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="X32" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="Y32" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="Z32" s="4">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="4">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="4">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="4">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="AH32" s="2"/>
       <c r="AI32" s="4">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="AJ32" s="3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="J33" s="4">
         <v>45903</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4">
-        <v>45919</v>
+        <v>45941</v>
       </c>
       <c r="M33" s="4">
-        <v>45908</v>
+        <v>45914</v>
       </c>
       <c r="N33" s="4">
-        <v>45907</v>
+        <v>45914</v>
       </c>
       <c r="O33" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="P33" s="4">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="Q33" s="4">
         <v>45903</v>
@@ -4968,70 +4899,74 @@
         <v>45903</v>
       </c>
       <c r="S33" s="4">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="T33" s="4">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="U33" s="4">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="V33" s="4">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="W33" s="4">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="X33" s="4">
-        <v>45912</v>
+        <v>45931</v>
       </c>
       <c r="Y33" s="4">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="Z33" s="4">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="4">
-        <v>45919</v>
+        <v>45943</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="4">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="4">
-        <v>45920</v>
+        <v>45944</v>
       </c>
       <c r="AH33" s="2"/>
       <c r="AI33" s="4">
-        <v>45927</v>
-      </c>
-      <c r="AJ33" s="2"/>
+        <v>45946</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>6</v>
@@ -5041,85 +4976,95 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4">
-        <v>45957</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>45925</v>
+      </c>
+      <c r="M34" s="4">
+        <v>45906</v>
+      </c>
       <c r="N34" s="4">
-        <v>45919</v>
+        <v>45906</v>
       </c>
       <c r="O34" s="4">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="P34" s="4">
         <v>45903</v>
       </c>
       <c r="Q34" s="4">
+        <v>45898</v>
+      </c>
+      <c r="R34" s="4">
+        <v>45898</v>
+      </c>
+      <c r="S34" s="4">
         <v>45904</v>
       </c>
-      <c r="R34" s="4">
-        <v>45903</v>
-      </c>
-      <c r="S34" s="4">
-        <v>45915</v>
-      </c>
       <c r="T34" s="4">
-        <v>45916</v>
-      </c>
-      <c r="U34" s="2"/>
+        <v>45902</v>
+      </c>
+      <c r="U34" s="4">
+        <v>45908</v>
+      </c>
       <c r="V34" s="4">
-        <v>45922</v>
-      </c>
-      <c r="W34" s="2"/>
+        <v>45910</v>
+      </c>
+      <c r="W34" s="4">
+        <v>45919</v>
+      </c>
       <c r="X34" s="4">
-        <v>45945</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>45919</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>45919</v>
+      </c>
       <c r="Z34" s="4">
-        <v>45955</v>
+        <v>45919</v>
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="4">
-        <v>45959</v>
+        <v>45926</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="4">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="4">
-        <v>45960</v>
+        <v>45926</v>
       </c>
       <c r="AH34" s="2"/>
       <c r="AI34" s="4">
-        <v>45961</v>
-      </c>
-      <c r="AJ34" s="2"/>
+        <v>45929</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>6</v>
@@ -5129,13 +5074,13 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="M35" s="4">
-        <v>45914</v>
+        <v>45902</v>
       </c>
       <c r="N35" s="4">
-        <v>45914</v>
+        <v>45903</v>
       </c>
       <c r="O35" s="4">
         <v>45903</v>
@@ -5150,50 +5095,52 @@
         <v>45903</v>
       </c>
       <c r="S35" s="4">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="T35" s="4">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="U35" s="4">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="V35" s="4">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="4">
-        <v>45922</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>45931</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>45918</v>
+      </c>
       <c r="Z35" s="4">
-        <v>45919</v>
+        <v>45931</v>
       </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="4">
-        <v>45923</v>
+        <v>45941</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="4">
-        <v>45929</v>
+        <v>45944</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="4">
-        <v>45923</v>
+        <v>45943</v>
       </c>
       <c r="AH35" s="2"/>
       <c r="AI35" s="4">
-        <v>45929</v>
+        <v>45944</v>
       </c>
       <c r="AJ35" s="2"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -5202,92 +5149,92 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J36" s="4">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="M36" s="4">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="N36" s="4">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="O36" s="4">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="P36" s="4">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="Q36" s="4">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="R36" s="4">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="S36" s="4">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="T36" s="4">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="U36" s="4">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="V36" s="4">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="4">
-        <v>45931</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>45924</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>45919</v>
+      </c>
       <c r="Z36" s="4">
         <v>45919</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="4">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="4">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="4">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="4">
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="AJ36" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>44</v>
@@ -5299,89 +5246,83 @@
         <v>5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J37" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4">
-        <v>45925</v>
-      </c>
-      <c r="M37" s="4">
-        <v>45914</v>
-      </c>
+        <v>45933</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="4">
-        <v>45914</v>
+        <v>45923</v>
       </c>
       <c r="O37" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="P37" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="Q37" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="R37" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="S37" s="4">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="T37" s="4">
-        <v>45910</v>
-      </c>
-      <c r="U37" s="4">
-        <v>45915</v>
-      </c>
+        <v>45911</v>
+      </c>
+      <c r="U37" s="2"/>
       <c r="V37" s="4">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="4">
-        <v>45933</v>
+        <v>45926</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="4">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="4">
-        <v>45923</v>
+        <v>45933</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="4">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="4">
-        <v>45923</v>
+        <v>45936</v>
       </c>
       <c r="AH37" s="2"/>
       <c r="AI37" s="4">
-        <v>45929</v>
-      </c>
-      <c r="AJ37" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>45939</v>
+      </c>
+      <c r="AJ37" s="2"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>44</v>
@@ -5393,89 +5334,89 @@
         <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="M38" s="4">
-        <v>45914</v>
+        <v>45911</v>
       </c>
       <c r="N38" s="4">
-        <v>45914</v>
+        <v>45911</v>
       </c>
       <c r="O38" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="P38" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="Q38" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="R38" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="S38" s="4">
+        <v>45909</v>
+      </c>
+      <c r="T38" s="4">
+        <v>45909</v>
+      </c>
+      <c r="U38" s="4">
         <v>45912</v>
       </c>
-      <c r="T38" s="4">
-        <v>45911</v>
-      </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <v>45915</v>
-      </c>
-      <c r="V38" s="4">
-        <v>45917</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="4">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="4">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="AA38" s="2"/>
       <c r="AB38" s="4">
-        <v>45924</v>
+        <v>45930</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="4">
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="4">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="AH38" s="2"/>
       <c r="AI38" s="4">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>44</v>
@@ -5488,437 +5429,429 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="J39" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4">
-        <v>45934</v>
+        <v>45925</v>
       </c>
       <c r="M39" s="4">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="N39" s="4">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="O39" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="P39" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="Q39" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="R39" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="S39" s="4">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="T39" s="4">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="U39" s="4">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="V39" s="4">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="4">
-        <v>45931</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>45923</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>45919</v>
+      </c>
       <c r="Z39" s="4">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="4">
-        <v>45936</v>
+        <v>45926</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="4">
-        <v>45943</v>
+        <v>45936</v>
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="4">
-        <v>45937</v>
+        <v>45931</v>
       </c>
       <c r="AH39" s="2"/>
       <c r="AI39" s="4">
-        <v>45940</v>
+        <v>45933</v>
       </c>
       <c r="AJ39" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4">
-        <v>45924</v>
-      </c>
-      <c r="M40" s="4">
-        <v>45906</v>
-      </c>
+        <v>45936</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="4">
-        <v>45906</v>
+        <v>45922</v>
       </c>
       <c r="O40" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="P40" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="Q40" s="4">
-        <v>45898</v>
+        <v>45909</v>
       </c>
       <c r="R40" s="4">
-        <v>45898</v>
+        <v>45909</v>
       </c>
       <c r="S40" s="4">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="T40" s="4">
-        <v>45902</v>
-      </c>
-      <c r="U40" s="4">
-        <v>45908</v>
-      </c>
+        <v>45909</v>
+      </c>
+      <c r="U40" s="2"/>
       <c r="V40" s="4">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="4">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="4">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="4">
-        <v>45924</v>
+        <v>45936</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="4">
-        <v>45927</v>
+        <v>45943</v>
       </c>
       <c r="AF40" s="2"/>
       <c r="AG40" s="4">
-        <v>45925</v>
+        <v>45937</v>
       </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="4">
-        <v>45926</v>
+        <v>45940</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J41" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4">
-        <v>45940</v>
-      </c>
-      <c r="M41" s="4">
-        <v>45902</v>
-      </c>
+        <v>45929</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="4">
-        <v>45903</v>
+        <v>45922</v>
       </c>
       <c r="O41" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="P41" s="4">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="Q41" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="R41" s="4">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="S41" s="4">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="T41" s="4">
-        <v>45901</v>
-      </c>
-      <c r="U41" s="4">
-        <v>45904</v>
-      </c>
+        <v>45915</v>
+      </c>
+      <c r="U41" s="2"/>
       <c r="V41" s="4">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="4">
-        <v>45931</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>45918</v>
-      </c>
+        <v>45925</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" s="4">
-        <v>45931</v>
+        <v>45922</v>
       </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="4">
-        <v>45941</v>
+        <v>45930</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="4">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="4">
-        <v>45943</v>
+        <v>45930</v>
       </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="4">
-        <v>45944</v>
+        <v>45932</v>
       </c>
       <c r="AJ41" s="2"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J42" s="4">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4">
-        <v>45932</v>
-      </c>
-      <c r="M42" s="4">
+        <v>45935</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="4">
+        <v>45922</v>
+      </c>
+      <c r="O42" s="4">
+        <v>45910</v>
+      </c>
+      <c r="P42" s="4">
+        <v>45909</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>45910</v>
+      </c>
+      <c r="R42" s="4">
+        <v>45910</v>
+      </c>
+      <c r="S42" s="4">
         <v>45916</v>
       </c>
-      <c r="N42" s="4">
+      <c r="T42" s="4">
         <v>45916</v>
       </c>
-      <c r="O42" s="4">
-        <v>45905</v>
-      </c>
-      <c r="P42" s="4">
-        <v>45905</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>45904</v>
-      </c>
-      <c r="R42" s="4">
-        <v>45904</v>
-      </c>
-      <c r="S42" s="4">
-        <v>45909</v>
-      </c>
-      <c r="T42" s="4">
-        <v>45908</v>
-      </c>
-      <c r="U42" s="4">
-        <v>45918</v>
-      </c>
+      <c r="U42" s="2"/>
       <c r="V42" s="4">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="4">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="4">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="4">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="4">
-        <v>45937</v>
+        <v>45944</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="4">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="AH42" s="2"/>
       <c r="AI42" s="4">
-        <v>45936</v>
-      </c>
-      <c r="AJ42" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>45944</v>
+      </c>
+      <c r="AJ42" s="2"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J43" s="4">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4">
-        <v>45933</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>45934</v>
+      </c>
+      <c r="M43" s="4">
+        <v>45917</v>
+      </c>
       <c r="N43" s="4">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="O43" s="4">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="P43" s="4">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="Q43" s="4">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="R43" s="4">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="S43" s="4">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="T43" s="4">
-        <v>45911</v>
-      </c>
-      <c r="U43" s="2"/>
+        <v>45913</v>
+      </c>
+      <c r="U43" s="4">
+        <v>45918</v>
+      </c>
       <c r="V43" s="4">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="4">
-        <v>45926</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>45930</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>45919</v>
+      </c>
       <c r="Z43" s="4">
-        <v>45926</v>
+        <v>45919</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="4">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="4">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="4">
@@ -5926,16 +5859,16 @@
       </c>
       <c r="AH43" s="2"/>
       <c r="AI43" s="4">
-        <v>45939</v>
+        <v>45944</v>
       </c>
       <c r="AJ43" s="2"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>44</v>
@@ -5943,93 +5876,91 @@
       <c r="D44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="M44" s="4">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="N44" s="4">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="O44" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="P44" s="4">
         <v>45909</v>
       </c>
       <c r="Q44" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="R44" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="S44" s="4">
         <v>45909</v>
       </c>
       <c r="T44" s="4">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="U44" s="4">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="V44" s="4">
-        <v>45915</v>
+        <v>45920</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="4">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="4">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="4">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="4">
-        <v>45936</v>
+        <v>45940</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="4">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="4">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="AJ44" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>44</v>
@@ -6040,282 +5971,282 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="G45" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J45" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="M45" s="4">
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="N45" s="4">
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="O45" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="P45" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="Q45" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="R45" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="S45" s="4">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="T45" s="4">
-        <v>45912</v>
-      </c>
-      <c r="U45" s="4">
-        <v>45918</v>
-      </c>
+        <v>45917</v>
+      </c>
+      <c r="U45" s="2"/>
       <c r="V45" s="4">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="4">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="4">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="4">
-        <v>45926</v>
+        <v>45936</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="4">
-        <v>45936</v>
+        <v>45941</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="4">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="AH45" s="2"/>
       <c r="AI45" s="4">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AJ45" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4">
-        <v>45960</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>45933</v>
+      </c>
+      <c r="M46" s="4">
+        <v>45920</v>
+      </c>
       <c r="N46" s="4">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="O46" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="P46" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="Q46" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="R46" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="S46" s="4">
-        <v>45909</v>
+        <v>45918</v>
       </c>
       <c r="T46" s="4">
-        <v>45909</v>
+        <v>45917</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="4">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="4">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="4">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="4">
-        <v>45959</v>
+        <v>45936</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="4">
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="4">
-        <v>45959</v>
+        <v>45936</v>
       </c>
       <c r="AH46" s="2"/>
       <c r="AI46" s="4">
-        <v>45933</v>
-      </c>
-      <c r="AJ46" s="3" t="s">
-        <v>210</v>
-      </c>
+        <v>45939</v>
+      </c>
+      <c r="AJ46" s="2"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J47" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4">
-        <v>45926</v>
+        <v>45946</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="4">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="O47" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="P47" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="Q47" s="4">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="R47" s="4">
-        <v>45908</v>
-      </c>
-      <c r="S47" s="4">
-        <v>45915</v>
-      </c>
+        <v>45917</v>
+      </c>
+      <c r="S47" s="2"/>
       <c r="T47" s="4">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="4">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="4">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="4">
-        <v>45919</v>
+        <v>45930</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="4">
-        <v>45926</v>
+        <v>45946</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="4">
-        <v>45930</v>
+        <v>45952</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="4">
-        <v>45926</v>
+        <v>45947</v>
       </c>
       <c r="AH47" s="2"/>
       <c r="AI47" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AJ47" s="2"/>
+        <v>45951</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F48" s="3" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>6</v>
@@ -6325,17 +6256,19 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4">
-        <v>45935</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>45934</v>
+      </c>
+      <c r="M48" s="4">
+        <v>45916</v>
+      </c>
       <c r="N48" s="4">
-        <v>45921</v>
+        <v>45917</v>
       </c>
       <c r="O48" s="4">
         <v>45910</v>
       </c>
       <c r="P48" s="4">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="Q48" s="4">
         <v>45910</v>
@@ -6344,22 +6277,24 @@
         <v>45910</v>
       </c>
       <c r="S48" s="4">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="T48" s="4">
-        <v>45916</v>
-      </c>
-      <c r="U48" s="2"/>
+        <v>45911</v>
+      </c>
+      <c r="U48" s="4">
+        <v>45919</v>
+      </c>
       <c r="V48" s="4">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="4">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="4">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="4">
@@ -6368,204 +6303,212 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="4">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="4">
-        <v>45937</v>
+        <v>45936</v>
       </c>
       <c r="AH48" s="2"/>
       <c r="AI48" s="4">
-        <v>45944</v>
-      </c>
-      <c r="AJ48" s="2"/>
+        <v>45940</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="4">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4">
-        <v>45934</v>
+        <v>45955</v>
       </c>
       <c r="M49" s="4">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="N49" s="4">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="O49" s="4">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="P49" s="4">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="Q49" s="4">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="R49" s="4">
         <v>45910</v>
       </c>
       <c r="S49" s="4">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="T49" s="4">
-        <v>45913</v>
+        <v>45908</v>
       </c>
       <c r="U49" s="4">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="V49" s="4">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="4">
-        <v>45930</v>
+        <v>45938</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="4">
-        <v>45919</v>
+        <v>45947</v>
       </c>
       <c r="AA49" s="2"/>
       <c r="AB49" s="4">
-        <v>45934</v>
+        <v>45955</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="4">
-        <v>45945</v>
+        <v>45962</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="4">
-        <v>45936</v>
+        <v>45957</v>
       </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="4">
-        <v>45944</v>
-      </c>
-      <c r="AJ49" s="2"/>
+        <v>45959</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F50" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J50" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4">
-        <v>45933</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>45938</v>
+      </c>
+      <c r="M50" s="4">
+        <v>45916</v>
+      </c>
       <c r="N50" s="4">
+        <v>45916</v>
+      </c>
+      <c r="O50" s="4">
+        <v>45915</v>
+      </c>
+      <c r="P50" s="4">
+        <v>45913</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>45915</v>
+      </c>
+      <c r="R50" s="4">
+        <v>45914</v>
+      </c>
+      <c r="S50" s="4">
+        <v>45916</v>
+      </c>
+      <c r="T50" s="4">
+        <v>45916</v>
+      </c>
+      <c r="U50" s="4">
         <v>45919</v>
       </c>
-      <c r="O50" s="4">
-        <v>45910</v>
-      </c>
-      <c r="P50" s="4">
-        <v>45909</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>45908</v>
-      </c>
-      <c r="R50" s="4">
-        <v>45908</v>
-      </c>
-      <c r="S50" s="4">
-        <v>45909</v>
-      </c>
-      <c r="T50" s="4">
-        <v>45908</v>
-      </c>
-      <c r="U50" s="2"/>
       <c r="V50" s="4">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="4">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="4">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="4">
-        <v>45934</v>
+        <v>45939</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="4">
-        <v>45940</v>
+        <v>45946</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="4">
-        <v>45936</v>
+        <v>45940</v>
       </c>
       <c r="AH50" s="2"/>
       <c r="AI50" s="4">
-        <v>45939</v>
-      </c>
-      <c r="AJ50" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>45946</v>
+      </c>
+      <c r="AJ50" s="2"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>44</v>
@@ -6577,10 +6520,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>9</v>
@@ -6589,73 +6532,69 @@
         <v>6</v>
       </c>
       <c r="J51" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4">
-        <v>45933</v>
+        <v>45941</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="4">
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="O51" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="P51" s="4">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="Q51" s="4">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="R51" s="4">
-        <v>45910</v>
-      </c>
-      <c r="S51" s="4">
-        <v>45918</v>
-      </c>
+        <v>45917</v>
+      </c>
+      <c r="S51" s="2"/>
       <c r="T51" s="4">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="4">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="AA51" s="2"/>
       <c r="AB51" s="4">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="4">
-        <v>45941</v>
+        <v>45950</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="4">
-        <v>45936</v>
+        <v>45944</v>
       </c>
       <c r="AH51" s="2"/>
       <c r="AI51" s="4">
-        <v>45939</v>
-      </c>
-      <c r="AJ51" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>45948</v>
+      </c>
+      <c r="AJ51" s="2"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>44</v>
@@ -6667,10 +6606,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -6679,107 +6618,107 @@
         <v>6</v>
       </c>
       <c r="J52" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4">
-        <v>45933</v>
+        <v>45941</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="4">
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="O52" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="P52" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="Q52" s="4">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="R52" s="4">
-        <v>45910</v>
-      </c>
-      <c r="S52" s="4">
-        <v>45918</v>
-      </c>
+        <v>45917</v>
+      </c>
+      <c r="S52" s="2"/>
       <c r="T52" s="4">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="4">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="4">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="4">
-        <v>45940</v>
+        <v>45950</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="4">
-        <v>45936</v>
+        <v>45944</v>
       </c>
       <c r="AH52" s="2"/>
       <c r="AI52" s="4">
-        <v>45939</v>
+        <v>45948</v>
       </c>
       <c r="AJ52" s="2"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F53" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J53" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4">
-        <v>45946</v>
+        <v>45941</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="4">
-        <v>45925</v>
+        <v>45927</v>
       </c>
       <c r="O53" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="P53" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="Q53" s="4">
         <v>45918</v>
@@ -6789,47 +6728,45 @@
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="4">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="4">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="4">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="4">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="AA53" s="2"/>
       <c r="AB53" s="4">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="4">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="AF53" s="2"/>
       <c r="AG53" s="4">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="AH53" s="2"/>
       <c r="AI53" s="4">
-        <v>45951</v>
-      </c>
-      <c r="AJ53" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>45948</v>
+      </c>
+      <c r="AJ53" s="2"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>44</v>
@@ -6837,239 +6774,227 @@
       <c r="D54" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F54" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="4">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4">
-        <v>45936</v>
-      </c>
-      <c r="M54" s="4">
+        <v>45941</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="4">
+        <v>45927</v>
+      </c>
+      <c r="O54" s="4">
         <v>45916</v>
       </c>
-      <c r="N54" s="4">
+      <c r="P54" s="4">
+        <v>45918</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>45918</v>
+      </c>
+      <c r="R54" s="4">
         <v>45917</v>
       </c>
-      <c r="O54" s="4">
-        <v>45910</v>
-      </c>
-      <c r="P54" s="4">
-        <v>45910</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>45910</v>
-      </c>
-      <c r="R54" s="4">
-        <v>45910</v>
-      </c>
-      <c r="S54" s="4">
-        <v>45912</v>
-      </c>
+      <c r="S54" s="2"/>
       <c r="T54" s="4">
-        <v>45911</v>
+        <v>45924</v>
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="4">
-        <v>45919</v>
+        <v>45930</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="4">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="AA54" s="2"/>
       <c r="AB54" s="4">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="4">
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="4">
-        <v>45936</v>
+        <v>45944</v>
       </c>
       <c r="AH54" s="2"/>
       <c r="AI54" s="4">
-        <v>45940</v>
+        <v>45948</v>
       </c>
       <c r="AJ54" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J55" s="4">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4">
-        <v>45955</v>
-      </c>
-      <c r="M55" s="4">
-        <v>45910</v>
-      </c>
+        <v>45941</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="4">
-        <v>45910</v>
+        <v>45927</v>
       </c>
       <c r="O55" s="4">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="P55" s="4">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="Q55" s="4">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="R55" s="4">
-        <v>45910</v>
-      </c>
-      <c r="S55" s="4">
-        <v>45905</v>
-      </c>
+        <v>45916</v>
+      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="4">
-        <v>45908</v>
-      </c>
-      <c r="U55" s="4">
-        <v>45912</v>
-      </c>
+        <v>45924</v>
+      </c>
+      <c r="U55" s="2"/>
       <c r="V55" s="4">
-        <v>45912</v>
+        <v>45930</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="4">
-        <v>45938</v>
+        <v>45931</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="4">
-        <v>45947</v>
+        <v>45931</v>
       </c>
       <c r="AA55" s="2"/>
       <c r="AB55" s="4">
-        <v>45955</v>
+        <v>45943</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="4">
-        <v>45962</v>
+        <v>45950</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="4">
-        <v>45957</v>
+        <v>45944</v>
       </c>
       <c r="AH55" s="2"/>
       <c r="AI55" s="4">
-        <v>45959</v>
+        <v>45948</v>
       </c>
       <c r="AJ55" s="3" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="4">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4">
-        <v>45938</v>
-      </c>
-      <c r="M56" s="4">
-        <v>45916</v>
-      </c>
+        <v>45940</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="4">
-        <v>45916</v>
+        <v>45925</v>
       </c>
       <c r="O56" s="4">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="P56" s="4">
-        <v>45913</v>
+        <v>45912</v>
       </c>
       <c r="Q56" s="4">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="R56" s="4">
-        <v>45914</v>
+        <v>45917</v>
       </c>
       <c r="S56" s="4">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="T56" s="4">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="U56" s="2"/>
       <c r="V56" s="4">
-        <v>45918</v>
+        <v>45927</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="4">
@@ -7077,7 +7002,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="4">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="AA56" s="2"/>
       <c r="AB56" s="4">
@@ -7086,220 +7011,226 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="4">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="4">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="AH56" s="2"/>
       <c r="AI56" s="4">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="AJ56" s="2"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="4">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4">
-        <v>45941</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>45939</v>
+      </c>
+      <c r="M57" s="4">
+        <v>45919</v>
+      </c>
       <c r="N57" s="4">
-        <v>45927</v>
+        <v>45919</v>
       </c>
       <c r="O57" s="4">
+        <v>45915</v>
+      </c>
+      <c r="P57" s="4">
+        <v>45913</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>45915</v>
+      </c>
+      <c r="R57" s="4">
+        <v>45915</v>
+      </c>
+      <c r="S57" s="4">
         <v>45916</v>
       </c>
-      <c r="P57" s="4">
-        <v>45909</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>45918</v>
-      </c>
-      <c r="R57" s="4">
-        <v>45917</v>
-      </c>
-      <c r="S57" s="2"/>
       <c r="T57" s="4">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="4">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="4">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="4">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="AA57" s="2"/>
       <c r="AB57" s="4">
-        <v>45943</v>
+        <v>45940</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="4">
-        <v>45950</v>
+        <v>45947</v>
       </c>
       <c r="AF57" s="2"/>
       <c r="AG57" s="4">
-        <v>45944</v>
+        <v>45940</v>
       </c>
       <c r="AH57" s="2"/>
       <c r="AI57" s="4">
-        <v>45948</v>
+        <v>45947</v>
       </c>
       <c r="AJ57" s="2"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J58" s="4">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4">
-        <v>45941</v>
+        <v>45940</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="4">
-        <v>45927</v>
+        <v>45921</v>
       </c>
       <c r="O58" s="4">
-        <v>45916</v>
+        <v>45913</v>
       </c>
       <c r="P58" s="4">
-        <v>45916</v>
+        <v>45913</v>
       </c>
       <c r="Q58" s="4">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="R58" s="4">
+        <v>45915</v>
+      </c>
+      <c r="S58" s="4">
         <v>45917</v>
       </c>
-      <c r="S58" s="2"/>
       <c r="T58" s="4">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="4">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="4">
-        <v>45931</v>
+        <v>45934</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="4">
-        <v>45931</v>
+        <v>45925</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="4">
-        <v>45943</v>
+        <v>45941</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="4">
-        <v>45950</v>
+        <v>45947</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="4">
-        <v>45944</v>
+        <v>45941</v>
       </c>
       <c r="AH58" s="2"/>
       <c r="AI58" s="4">
-        <v>45948</v>
+        <v>45946</v>
       </c>
       <c r="AJ58" s="2"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J59" s="4">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4">
@@ -7307,35 +7238,37 @@
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="4">
-        <v>45927</v>
+        <v>45921</v>
       </c>
       <c r="O59" s="4">
+        <v>45915</v>
+      </c>
+      <c r="P59" s="4">
+        <v>45915</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>45915</v>
+      </c>
+      <c r="R59" s="4">
+        <v>45915</v>
+      </c>
+      <c r="S59" s="4">
         <v>45916</v>
       </c>
-      <c r="P59" s="4">
+      <c r="T59" s="4">
         <v>45916</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>45918</v>
-      </c>
-      <c r="R59" s="4">
-        <v>45917</v>
-      </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="4">
-        <v>45924</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="4">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="4">
-        <v>45931</v>
+        <v>45934</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="4">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="AA59" s="2"/>
       <c r="AB59" s="4">
@@ -7348,711 +7281,279 @@
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="4">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="AH59" s="2"/>
       <c r="AI59" s="4">
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="AJ59" s="2"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="4">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4">
-        <v>45941</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>45928</v>
+      </c>
+      <c r="M60" s="4">
+        <v>45912</v>
+      </c>
       <c r="N60" s="4">
-        <v>45927</v>
+        <v>45912</v>
       </c>
       <c r="O60" s="4">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="P60" s="4">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="Q60" s="4">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="R60" s="4">
-        <v>45917</v>
-      </c>
-      <c r="S60" s="2"/>
+        <v>45908</v>
+      </c>
+      <c r="S60" s="4">
+        <v>45910</v>
+      </c>
       <c r="T60" s="4">
-        <v>45924</v>
-      </c>
-      <c r="U60" s="2"/>
+        <v>45908</v>
+      </c>
+      <c r="U60" s="4">
+        <v>45915</v>
+      </c>
       <c r="V60" s="4">
-        <v>45930</v>
+        <v>45915</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="4">
-        <v>45931</v>
+        <v>45922</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="4">
-        <v>45931</v>
+        <v>45923</v>
       </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="4">
-        <v>45943</v>
+        <v>45929</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="4">
-        <v>45950</v>
+        <v>45934</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="4">
-        <v>45944</v>
+        <v>45929</v>
       </c>
       <c r="AH60" s="2"/>
       <c r="AI60" s="4">
-        <v>45948</v>
+        <v>45932</v>
       </c>
       <c r="AJ60" s="2"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J61" s="4">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4">
-        <v>45941</v>
+        <v>45938</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="4">
-        <v>45927</v>
+        <v>45924</v>
       </c>
       <c r="O61" s="4">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="P61" s="4">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="Q61" s="4">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="R61" s="4">
-        <v>45916</v>
-      </c>
-      <c r="S61" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="S61" s="4">
+        <v>45917</v>
+      </c>
       <c r="T61" s="4">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="4">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="4">
-        <v>45931</v>
+        <v>45934</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="4">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="AA61" s="2"/>
       <c r="AB61" s="4">
-        <v>45943</v>
+        <v>45939</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="4">
-        <v>45950</v>
+        <v>45945</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="4">
-        <v>45944</v>
+        <v>45939</v>
       </c>
       <c r="AH61" s="2"/>
       <c r="AI61" s="4">
-        <v>45948</v>
-      </c>
-      <c r="AJ61" s="3" t="s">
-        <v>267</v>
-      </c>
+        <v>45944</v>
+      </c>
+      <c r="AJ61" s="2"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G62" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J62" s="4">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="4">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="O62" s="4">
+        <v>45919</v>
+      </c>
+      <c r="P62" s="4">
         <v>45917</v>
       </c>
-      <c r="P62" s="4">
-        <v>45912</v>
-      </c>
       <c r="Q62" s="4">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="R62" s="4">
-        <v>45917</v>
-      </c>
-      <c r="S62" s="2"/>
+        <v>45918</v>
+      </c>
+      <c r="S62" s="4">
+        <v>45919</v>
+      </c>
       <c r="T62" s="4">
         <v>45919</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="4">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="4">
-        <v>45933</v>
+        <v>45938</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="4">
-        <v>45927</v>
+        <v>45933</v>
       </c>
       <c r="AA62" s="2"/>
       <c r="AB62" s="4">
-        <v>45939</v>
+        <v>45944</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
+      <c r="AE62" s="4">
+        <v>45950</v>
+      </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="4">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="AH62" s="2"/>
       <c r="AI62" s="4">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="AJ62" s="2"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="4">
-        <v>45917</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="4">
-        <v>45939</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="4">
-        <v>45919</v>
-      </c>
-      <c r="O63" s="4">
-        <v>45915</v>
-      </c>
-      <c r="P63" s="4">
-        <v>45913</v>
-      </c>
-      <c r="Q63" s="4">
-        <v>45915</v>
-      </c>
-      <c r="R63" s="4">
-        <v>45915</v>
-      </c>
-      <c r="S63" s="4">
-        <v>45916</v>
-      </c>
-      <c r="T63" s="4">
-        <v>45916</v>
-      </c>
-      <c r="U63" s="2"/>
-      <c r="V63" s="4">
-        <v>45920</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="4">
-        <v>45932</v>
-      </c>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="4">
-        <v>45940</v>
-      </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="4">
-        <v>45947</v>
-      </c>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="4">
-        <v>45940</v>
-      </c>
-      <c r="AH63" s="2"/>
-      <c r="AI63" s="4">
-        <v>45947</v>
-      </c>
-      <c r="AJ63" s="2"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="4">
-        <v>45917</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="4">
-        <v>45940</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="4">
-        <v>45921</v>
-      </c>
-      <c r="O64" s="4">
-        <v>45913</v>
-      </c>
-      <c r="P64" s="4">
-        <v>45913</v>
-      </c>
-      <c r="Q64" s="4">
-        <v>45915</v>
-      </c>
-      <c r="R64" s="4">
-        <v>45915</v>
-      </c>
-      <c r="S64" s="4">
-        <v>45917</v>
-      </c>
-      <c r="T64" s="4">
-        <v>45917</v>
-      </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="4">
-        <v>45923</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="4">
-        <v>45934</v>
-      </c>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="4">
-        <v>45925</v>
-      </c>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="4">
-        <v>45941</v>
-      </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="4">
-        <v>45947</v>
-      </c>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="4">
-        <v>45941</v>
-      </c>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="4">
-        <v>45946</v>
-      </c>
-      <c r="AJ64" s="2"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="4">
-        <v>45917</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="4">
-        <v>45941</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="4">
-        <v>45921</v>
-      </c>
-      <c r="O65" s="4">
-        <v>45915</v>
-      </c>
-      <c r="P65" s="4">
-        <v>45915</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>45915</v>
-      </c>
-      <c r="R65" s="4">
-        <v>45915</v>
-      </c>
-      <c r="S65" s="4">
-        <v>45916</v>
-      </c>
-      <c r="T65" s="4">
-        <v>45916</v>
-      </c>
-      <c r="U65" s="2"/>
-      <c r="V65" s="4">
-        <v>45923</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="4">
-        <v>45934</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="4">
-        <v>45943</v>
-      </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="4">
-        <v>45950</v>
-      </c>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="4">
-        <v>45943</v>
-      </c>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="4">
-        <v>45949</v>
-      </c>
-      <c r="AJ65" s="2"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="4">
-        <v>45917</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="4">
-        <v>45928</v>
-      </c>
-      <c r="M66" s="4">
-        <v>45912</v>
-      </c>
-      <c r="N66" s="4">
-        <v>45912</v>
-      </c>
-      <c r="O66" s="4">
-        <v>45912</v>
-      </c>
-      <c r="P66" s="4">
-        <v>45910</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>45910</v>
-      </c>
-      <c r="R66" s="4">
-        <v>45908</v>
-      </c>
-      <c r="S66" s="4">
-        <v>45910</v>
-      </c>
-      <c r="T66" s="4">
-        <v>45908</v>
-      </c>
-      <c r="U66" s="4">
-        <v>45915</v>
-      </c>
-      <c r="V66" s="4">
-        <v>45915</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="4">
-        <v>45922</v>
-      </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="4">
-        <v>45923</v>
-      </c>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="4">
-        <v>45929</v>
-      </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="4">
-        <v>45934</v>
-      </c>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="4">
-        <v>45929</v>
-      </c>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="4">
-        <v>45932</v>
-      </c>
-      <c r="AJ66" s="2"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="4">
-        <v>45918</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="4">
-        <v>45938</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="4">
-        <v>45924</v>
-      </c>
-      <c r="O67" s="4">
-        <v>45915</v>
-      </c>
-      <c r="P67" s="4">
-        <v>45915</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>45915</v>
-      </c>
-      <c r="R67" s="4">
-        <v>45915</v>
-      </c>
-      <c r="S67" s="4">
-        <v>45917</v>
-      </c>
-      <c r="T67" s="4">
-        <v>45917</v>
-      </c>
-      <c r="U67" s="2"/>
-      <c r="V67" s="4">
-        <v>45926</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="4">
-        <v>45934</v>
-      </c>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="4">
-        <v>45930</v>
-      </c>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="4">
-        <v>45939</v>
-      </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="4">
-        <v>45945</v>
-      </c>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="4">
-        <v>45939</v>
-      </c>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="4">
-        <v>45944</v>
-      </c>
-      <c r="AJ67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
